--- a/design/TESC Bill of Materials.xlsx
+++ b/design/TESC Bill of Materials.xlsx
@@ -772,9 +772,6 @@
     <t xml:space="preserve"> 497-11767-ND</t>
   </si>
   <si>
-    <t>LM3671MF-3.3/NOPBTR-ND</t>
-  </si>
-  <si>
     <t>Farnell</t>
   </si>
   <si>
@@ -784,13 +781,16 @@
     <t>771-TJA1051TK/3118</t>
   </si>
   <si>
-    <t>TJA1051TK/3/1J-ND</t>
-  </si>
-  <si>
-    <t>AD8418AWBRZ-RLTR-ND</t>
-  </si>
-  <si>
-    <t>1490-1019-ND</t>
+    <t>LM3671MF-3.3/NOPBCT-ND</t>
+  </si>
+  <si>
+    <t>568-8686-1-ND</t>
+  </si>
+  <si>
+    <t>AD8418AWBRZ-RLCT-ND</t>
+  </si>
+  <si>
+    <t>1490-1033-1-ND</t>
   </si>
 </sst>
 </file>
@@ -983,12 +983,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma" xfId="1"/>
@@ -1302,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1313,7 +1311,7 @@
     <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" customWidth="1"/>
     <col min="7" max="9" width="20.7109375" customWidth="1"/>
     <col min="10" max="10" width="28.7109375" customWidth="1"/>
     <col min="11" max="11" width="35.7109375" customWidth="1"/>
@@ -1350,7 +1348,7 @@
         <v>249</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>250</v>
@@ -1382,7 +1380,7 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" t="s">
         <v>251</v>
       </c>
       <c r="G2" s="14"/>
@@ -1390,7 +1388,7 @@
       <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="5"/>
@@ -1415,17 +1413,17 @@
       <c r="E3" s="8">
         <v>1</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>252</v>
+      <c r="F3" s="16" t="s">
+        <v>255</v>
       </c>
       <c r="G3" s="8"/>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <v>1685767</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" t="s">
         <v>13</v>
       </c>
       <c r="L3" s="8" t="s">
@@ -1450,14 +1448,14 @@
         <v>1</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" t="s">
         <v>17</v>
       </c>
       <c r="L4" s="8" t="s">
@@ -1483,13 +1481,13 @@
         <v>256</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="8" t="s">
@@ -1513,7 +1511,7 @@
       <c r="E6" s="8">
         <v>3</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="16" t="s">
         <v>257</v>
       </c>
       <c r="G6" s="8"/>
@@ -1521,7 +1519,7 @@
       <c r="I6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" t="s">
         <v>24</v>
       </c>
       <c r="L6" s="8" t="s">
@@ -1551,7 +1549,7 @@
       <c r="I7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" t="s">
         <v>28</v>
       </c>
       <c r="L7" s="8" t="s">
@@ -1579,7 +1577,7 @@
       <c r="I8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" t="s">
         <v>31</v>
       </c>
       <c r="L8" s="8" t="s">
@@ -1633,7 +1631,7 @@
       <c r="I10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" t="s">
         <v>38</v>
       </c>
       <c r="K10" s="8"/>
@@ -1663,7 +1661,7 @@
       <c r="I11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" t="s">
         <v>42</v>
       </c>
       <c r="L11" s="8" t="s">
@@ -1695,7 +1693,7 @@
       <c r="I12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" t="s">
         <v>47</v>
       </c>
       <c r="K12" t="s">
@@ -1728,7 +1726,7 @@
       <c r="I13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" t="s">
         <v>52</v>
       </c>
       <c r="L13" s="8" t="s">
@@ -1758,7 +1756,7 @@
       <c r="I14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" t="s">
         <v>55</v>
       </c>
       <c r="L14" s="8" t="s">
@@ -1788,7 +1786,7 @@
       <c r="I15" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" t="s">
         <v>58</v>
       </c>
       <c r="L15" s="8" t="s">
@@ -1818,7 +1816,7 @@
       <c r="I16" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" t="s">
         <v>62</v>
       </c>
       <c r="L16" s="8" t="s">
@@ -1848,7 +1846,7 @@
       <c r="I17" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" t="s">
         <v>66</v>
       </c>
       <c r="L17" s="8" t="s">
@@ -1876,7 +1874,7 @@
       <c r="I18" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" t="s">
         <v>69</v>
       </c>
       <c r="K18" t="s">
@@ -1909,7 +1907,7 @@
       <c r="I19" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" t="s">
         <v>74</v>
       </c>
       <c r="K19" s="8"/>
@@ -1942,7 +1940,7 @@
       <c r="I20" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" t="s">
         <v>79</v>
       </c>
       <c r="K20" s="10"/>
@@ -1975,7 +1973,7 @@
       <c r="I21" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" t="s">
         <v>84</v>
       </c>
       <c r="K21" s="10"/>
@@ -2008,7 +2006,7 @@
       <c r="I22" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" t="s">
         <v>89</v>
       </c>
       <c r="K22" s="10"/>
@@ -2041,7 +2039,7 @@
       <c r="I23" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" t="s">
         <v>94</v>
       </c>
       <c r="K23" s="10"/>
@@ -2074,7 +2072,7 @@
       <c r="I24" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" t="s">
         <v>98</v>
       </c>
       <c r="K24" s="10"/>
@@ -2107,7 +2105,7 @@
       <c r="I25" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" t="s">
         <v>98</v>
       </c>
       <c r="K25" s="10"/>
@@ -2140,7 +2138,7 @@
       <c r="I26" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J26" t="s">
         <v>103</v>
       </c>
       <c r="K26" s="10"/>
@@ -2173,7 +2171,7 @@
       <c r="I27" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" t="s">
         <v>107</v>
       </c>
       <c r="K27" s="10"/>
@@ -2206,7 +2204,7 @@
       <c r="I28" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" t="s">
         <v>107</v>
       </c>
       <c r="K28" s="10"/>
@@ -2239,7 +2237,7 @@
       <c r="I29" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" t="s">
         <v>112</v>
       </c>
       <c r="L29" s="8" t="s">
@@ -2271,7 +2269,7 @@
       <c r="I30" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" t="s">
         <v>116</v>
       </c>
       <c r="L30" s="8" t="s">
@@ -2303,7 +2301,7 @@
       <c r="I31" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" t="s">
         <v>120</v>
       </c>
       <c r="L31" s="8" t="s">
@@ -2335,7 +2333,7 @@
       <c r="I32" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" t="s">
         <v>120</v>
       </c>
       <c r="L32" s="8" t="s">
@@ -2367,7 +2365,7 @@
       <c r="I33" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="J33" t="s">
         <v>125</v>
       </c>
       <c r="L33" s="8" t="s">
@@ -2399,7 +2397,7 @@
       <c r="I34" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="J34" t="s">
         <v>129</v>
       </c>
       <c r="L34" s="8" t="s">
@@ -2431,7 +2429,7 @@
       <c r="I35" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="J35" t="s">
         <v>133</v>
       </c>
       <c r="L35" s="8" t="s">
@@ -2463,7 +2461,7 @@
       <c r="I36" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="J36" t="s">
         <v>137</v>
       </c>
       <c r="L36" s="8" t="s">
@@ -2526,7 +2524,7 @@
       <c r="I38" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="J38" t="s">
         <v>145</v>
       </c>
       <c r="K38" t="s">
@@ -2559,7 +2557,7 @@
       <c r="I39" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="J39" s="8" t="s">
+      <c r="J39" t="s">
         <v>149</v>
       </c>
       <c r="L39" s="8" t="s">
@@ -2589,7 +2587,7 @@
       <c r="I40" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="J40" s="8" t="s">
+      <c r="J40" t="s">
         <v>152</v>
       </c>
       <c r="L40" s="8" t="s">
@@ -2619,7 +2617,7 @@
       <c r="I41" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="J41" s="8" t="s">
+      <c r="J41" t="s">
         <v>155</v>
       </c>
       <c r="L41" s="8" t="s">
@@ -2649,7 +2647,7 @@
       <c r="I42" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="J42" s="8" t="s">
+      <c r="J42" t="s">
         <v>158</v>
       </c>
       <c r="L42" s="8" t="s">
@@ -2679,7 +2677,7 @@
       <c r="I43" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="J43" s="8" t="s">
+      <c r="J43" t="s">
         <v>161</v>
       </c>
       <c r="L43" s="8" t="s">
@@ -2711,7 +2709,7 @@
       <c r="I44" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="J44" t="s">
         <v>165</v>
       </c>
       <c r="L44" s="8" t="s">
@@ -2743,7 +2741,7 @@
       <c r="I45" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="J45" s="8" t="s">
+      <c r="J45" t="s">
         <v>169</v>
       </c>
       <c r="L45" s="8" t="s">
@@ -2775,7 +2773,7 @@
       <c r="I46" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="J46" s="8" t="s">
+      <c r="J46" t="s">
         <v>173</v>
       </c>
       <c r="L46" s="8" t="s">
@@ -2807,7 +2805,7 @@
       <c r="I47" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="J47" s="8" t="s">
+      <c r="J47" t="s">
         <v>177</v>
       </c>
       <c r="L47" s="8" t="s">
@@ -2839,7 +2837,7 @@
       <c r="I48" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="J48" s="8" t="s">
+      <c r="J48" t="s">
         <v>181</v>
       </c>
       <c r="L48" s="8" t="s">
@@ -2871,7 +2869,7 @@
       <c r="I49" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="J49" s="8" t="s">
+      <c r="J49" t="s">
         <v>185</v>
       </c>
       <c r="L49" s="8" t="s">
@@ -2903,7 +2901,7 @@
       <c r="I50" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="J50" s="8" t="s">
+      <c r="J50" t="s">
         <v>189</v>
       </c>
       <c r="L50" s="8" t="s">
@@ -2935,7 +2933,7 @@
       <c r="I51" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="J51" s="8" t="s">
+      <c r="J51" t="s">
         <v>193</v>
       </c>
       <c r="L51" s="8" t="s">
@@ -2967,7 +2965,7 @@
       <c r="I52" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="J52" s="8" t="s">
+      <c r="J52" t="s">
         <v>197</v>
       </c>
       <c r="L52" s="8" t="s">
@@ -2999,7 +2997,7 @@
       <c r="I53" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="J53" s="8" t="s">
+      <c r="J53" t="s">
         <v>201</v>
       </c>
       <c r="L53" s="8" t="s">
@@ -3031,7 +3029,7 @@
       <c r="I54" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="J54" s="8" t="s">
+      <c r="J54" t="s">
         <v>205</v>
       </c>
       <c r="L54" s="8" t="s">
@@ -3063,7 +3061,7 @@
       <c r="I55" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="J55" s="8" t="s">
+      <c r="J55" t="s">
         <v>209</v>
       </c>
       <c r="L55" s="8" t="s">
@@ -3095,7 +3093,7 @@
       <c r="I56" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="J56" s="8" t="s">
+      <c r="J56" t="s">
         <v>213</v>
       </c>
       <c r="L56" s="8" t="s">
@@ -3127,7 +3125,7 @@
       <c r="I57" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="J57" s="8" t="s">
+      <c r="J57" t="s">
         <v>217</v>
       </c>
       <c r="K57" s="8"/>
@@ -3158,7 +3156,7 @@
       <c r="I58" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="J58" s="8" t="s">
+      <c r="J58" t="s">
         <v>221</v>
       </c>
       <c r="K58" s="8"/>
@@ -3189,7 +3187,7 @@
       <c r="I59" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="J59" s="8" t="s">
+      <c r="J59" t="s">
         <v>225</v>
       </c>
       <c r="K59" s="8"/>
@@ -3220,7 +3218,7 @@
       <c r="I60" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="J60" s="8" t="s">
+      <c r="J60" t="s">
         <v>229</v>
       </c>
       <c r="K60" s="8"/>
@@ -3251,7 +3249,7 @@
       <c r="I61" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="J61" s="8" t="s">
+      <c r="J61" t="s">
         <v>233</v>
       </c>
       <c r="L61" s="8" t="s">
@@ -3281,7 +3279,7 @@
       <c r="I62" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="J62" s="8" t="s">
+      <c r="J62" t="s">
         <v>237</v>
       </c>
       <c r="L62" s="8" t="s">
@@ -3311,7 +3309,7 @@
       <c r="I63" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="J63" s="8" t="s">
+      <c r="J63" t="s">
         <v>241</v>
       </c>
       <c r="L63" s="8" t="s">
@@ -3337,7 +3335,7 @@
       <c r="I64" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="J64" s="8" t="s">
+      <c r="J64" t="s">
         <v>245</v>
       </c>
       <c r="L64" t="s">
@@ -3354,133 +3352,70 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="J4" r:id="rId2"/>
-    <hyperlink ref="J5" r:id="rId3"/>
-    <hyperlink ref="J6" r:id="rId4"/>
-    <hyperlink ref="J7" r:id="rId5"/>
-    <hyperlink ref="J8" r:id="rId6"/>
-    <hyperlink ref="J10" r:id="rId7"/>
-    <hyperlink ref="J11" r:id="rId8"/>
-    <hyperlink ref="J12" r:id="rId9"/>
-    <hyperlink ref="J13" r:id="rId10"/>
-    <hyperlink ref="J14" r:id="rId11"/>
-    <hyperlink ref="J15" r:id="rId12"/>
-    <hyperlink ref="J16" r:id="rId13"/>
-    <hyperlink ref="J17" r:id="rId14"/>
-    <hyperlink ref="J18" r:id="rId15"/>
-    <hyperlink ref="J19" r:id="rId16"/>
-    <hyperlink ref="J20" r:id="rId17"/>
-    <hyperlink ref="J21" r:id="rId18"/>
-    <hyperlink ref="J22" r:id="rId19"/>
-    <hyperlink ref="J23" r:id="rId20"/>
-    <hyperlink ref="J24" r:id="rId21"/>
-    <hyperlink ref="J25" r:id="rId22"/>
-    <hyperlink ref="J26" r:id="rId23"/>
-    <hyperlink ref="J27" r:id="rId24"/>
-    <hyperlink ref="J28" r:id="rId25"/>
-    <hyperlink ref="J29" r:id="rId26"/>
-    <hyperlink ref="J30" r:id="rId27"/>
-    <hyperlink ref="J31" r:id="rId28"/>
-    <hyperlink ref="J32" r:id="rId29"/>
-    <hyperlink ref="J33" r:id="rId30"/>
-    <hyperlink ref="J34" r:id="rId31"/>
-    <hyperlink ref="J35" r:id="rId32"/>
-    <hyperlink ref="J36" r:id="rId33"/>
-    <hyperlink ref="J38" r:id="rId34"/>
-    <hyperlink ref="J39" r:id="rId35"/>
-    <hyperlink ref="J40" r:id="rId36"/>
-    <hyperlink ref="J41" r:id="rId37"/>
-    <hyperlink ref="J42" r:id="rId38"/>
-    <hyperlink ref="J43" r:id="rId39"/>
-    <hyperlink ref="J44" r:id="rId40"/>
-    <hyperlink ref="J45" r:id="rId41"/>
-    <hyperlink ref="J46" r:id="rId42"/>
-    <hyperlink ref="J47" r:id="rId43"/>
-    <hyperlink ref="J48" r:id="rId44"/>
-    <hyperlink ref="J49" r:id="rId45"/>
-    <hyperlink ref="J50" r:id="rId46"/>
-    <hyperlink ref="J51" r:id="rId47"/>
-    <hyperlink ref="J52" r:id="rId48"/>
-    <hyperlink ref="J53" r:id="rId49"/>
-    <hyperlink ref="J54" r:id="rId50"/>
-    <hyperlink ref="J55" r:id="rId51"/>
-    <hyperlink ref="J56" r:id="rId52"/>
-    <hyperlink ref="J57" r:id="rId53"/>
-    <hyperlink ref="J58" r:id="rId54"/>
-    <hyperlink ref="J59" r:id="rId55"/>
-    <hyperlink ref="J60" r:id="rId56"/>
-    <hyperlink ref="J61" r:id="rId57"/>
-    <hyperlink ref="J62" r:id="rId58"/>
-    <hyperlink ref="J63" r:id="rId59"/>
-    <hyperlink ref="J64" r:id="rId60"/>
-    <hyperlink ref="F2" r:id="rId61" display="STM32F405RGT6"/>
-    <hyperlink ref="I2" r:id="rId62"/>
-    <hyperlink ref="F3" r:id="rId63"/>
-    <hyperlink ref="J3" r:id="rId64"/>
-    <hyperlink ref="I3" r:id="rId65"/>
-    <hyperlink ref="I4" r:id="rId66"/>
-    <hyperlink ref="I5" r:id="rId67"/>
-    <hyperlink ref="I6" r:id="rId68"/>
-    <hyperlink ref="I7" r:id="rId69"/>
-    <hyperlink ref="I8" r:id="rId70"/>
-    <hyperlink ref="I10" r:id="rId71"/>
-    <hyperlink ref="I11" r:id="rId72"/>
-    <hyperlink ref="I12" r:id="rId73"/>
-    <hyperlink ref="I13" r:id="rId74"/>
-    <hyperlink ref="I14" r:id="rId75"/>
-    <hyperlink ref="I15" r:id="rId76"/>
-    <hyperlink ref="I16" r:id="rId77"/>
-    <hyperlink ref="I17" r:id="rId78"/>
-    <hyperlink ref="I18" r:id="rId79"/>
-    <hyperlink ref="I19" r:id="rId80"/>
-    <hyperlink ref="I20" r:id="rId81"/>
-    <hyperlink ref="I21" r:id="rId82"/>
-    <hyperlink ref="I22" r:id="rId83"/>
-    <hyperlink ref="I23" r:id="rId84"/>
-    <hyperlink ref="I24" r:id="rId85"/>
-    <hyperlink ref="I25" r:id="rId86"/>
-    <hyperlink ref="I26" r:id="rId87"/>
-    <hyperlink ref="I27" r:id="rId88"/>
-    <hyperlink ref="I28" r:id="rId89"/>
-    <hyperlink ref="I29" r:id="rId90"/>
-    <hyperlink ref="I30" r:id="rId91"/>
-    <hyperlink ref="I31" r:id="rId92"/>
-    <hyperlink ref="I32" r:id="rId93"/>
-    <hyperlink ref="I33" r:id="rId94"/>
-    <hyperlink ref="I34" r:id="rId95"/>
-    <hyperlink ref="I35" r:id="rId96"/>
-    <hyperlink ref="I36" r:id="rId97"/>
-    <hyperlink ref="I38" r:id="rId98"/>
-    <hyperlink ref="I39" r:id="rId99"/>
-    <hyperlink ref="I40" r:id="rId100"/>
-    <hyperlink ref="I41" r:id="rId101"/>
-    <hyperlink ref="I42" r:id="rId102"/>
-    <hyperlink ref="I43" r:id="rId103"/>
-    <hyperlink ref="I44" r:id="rId104"/>
-    <hyperlink ref="I45" r:id="rId105"/>
-    <hyperlink ref="I46" r:id="rId106"/>
-    <hyperlink ref="I47" r:id="rId107"/>
-    <hyperlink ref="I48" r:id="rId108"/>
-    <hyperlink ref="I49" r:id="rId109"/>
-    <hyperlink ref="I50" r:id="rId110"/>
-    <hyperlink ref="I51" r:id="rId111"/>
-    <hyperlink ref="I52" r:id="rId112"/>
-    <hyperlink ref="I53" r:id="rId113"/>
-    <hyperlink ref="I54" r:id="rId114"/>
-    <hyperlink ref="I55" r:id="rId115"/>
-    <hyperlink ref="I56" r:id="rId116"/>
-    <hyperlink ref="I57" r:id="rId117"/>
-    <hyperlink ref="I58" r:id="rId118"/>
-    <hyperlink ref="I59" r:id="rId119"/>
-    <hyperlink ref="I60" r:id="rId120"/>
-    <hyperlink ref="I61" r:id="rId121"/>
-    <hyperlink ref="I62" r:id="rId122"/>
-    <hyperlink ref="I63" r:id="rId123"/>
-    <hyperlink ref="I64" r:id="rId124"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4"/>
+    <hyperlink ref="I6" r:id="rId5"/>
+    <hyperlink ref="I7" r:id="rId6"/>
+    <hyperlink ref="I8" r:id="rId7"/>
+    <hyperlink ref="I10" r:id="rId8"/>
+    <hyperlink ref="I11" r:id="rId9"/>
+    <hyperlink ref="I12" r:id="rId10"/>
+    <hyperlink ref="I13" r:id="rId11"/>
+    <hyperlink ref="I14" r:id="rId12"/>
+    <hyperlink ref="I15" r:id="rId13"/>
+    <hyperlink ref="I16" r:id="rId14"/>
+    <hyperlink ref="I17" r:id="rId15"/>
+    <hyperlink ref="I18" r:id="rId16"/>
+    <hyperlink ref="I19" r:id="rId17"/>
+    <hyperlink ref="I20" r:id="rId18"/>
+    <hyperlink ref="I21" r:id="rId19"/>
+    <hyperlink ref="I22" r:id="rId20"/>
+    <hyperlink ref="I23" r:id="rId21"/>
+    <hyperlink ref="I24" r:id="rId22"/>
+    <hyperlink ref="I25" r:id="rId23"/>
+    <hyperlink ref="I26" r:id="rId24"/>
+    <hyperlink ref="I27" r:id="rId25"/>
+    <hyperlink ref="I28" r:id="rId26"/>
+    <hyperlink ref="I29" r:id="rId27"/>
+    <hyperlink ref="I30" r:id="rId28"/>
+    <hyperlink ref="I31" r:id="rId29"/>
+    <hyperlink ref="I32" r:id="rId30"/>
+    <hyperlink ref="I33" r:id="rId31"/>
+    <hyperlink ref="I34" r:id="rId32"/>
+    <hyperlink ref="I35" r:id="rId33"/>
+    <hyperlink ref="I36" r:id="rId34"/>
+    <hyperlink ref="I38" r:id="rId35"/>
+    <hyperlink ref="I39" r:id="rId36"/>
+    <hyperlink ref="I40" r:id="rId37"/>
+    <hyperlink ref="I41" r:id="rId38"/>
+    <hyperlink ref="I42" r:id="rId39"/>
+    <hyperlink ref="I43" r:id="rId40"/>
+    <hyperlink ref="I44" r:id="rId41"/>
+    <hyperlink ref="I45" r:id="rId42"/>
+    <hyperlink ref="I46" r:id="rId43"/>
+    <hyperlink ref="I47" r:id="rId44"/>
+    <hyperlink ref="I48" r:id="rId45"/>
+    <hyperlink ref="I49" r:id="rId46"/>
+    <hyperlink ref="I50" r:id="rId47"/>
+    <hyperlink ref="I51" r:id="rId48"/>
+    <hyperlink ref="I52" r:id="rId49"/>
+    <hyperlink ref="I53" r:id="rId50"/>
+    <hyperlink ref="I54" r:id="rId51"/>
+    <hyperlink ref="I55" r:id="rId52"/>
+    <hyperlink ref="I56" r:id="rId53"/>
+    <hyperlink ref="I57" r:id="rId54"/>
+    <hyperlink ref="I58" r:id="rId55"/>
+    <hyperlink ref="I59" r:id="rId56"/>
+    <hyperlink ref="I60" r:id="rId57"/>
+    <hyperlink ref="I61" r:id="rId58"/>
+    <hyperlink ref="I62" r:id="rId59"/>
+    <hyperlink ref="I63" r:id="rId60"/>
+    <hyperlink ref="I64" r:id="rId61"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.99999999999999989" bottom="0.99999999999999989" header="0.49999999999999994" footer="0.49999999999999994"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId125"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId62"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/design/TESC Bill of Materials.xlsx
+++ b/design/TESC Bill of Materials.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Thomas/Developer/HardwareDesign/BLDC/tesc/design/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="750" yWindow="540" windowWidth="19095" windowHeight="10065"/>
+    <workbookView xWindow="1340" yWindow="1040" windowWidth="46260" windowHeight="25760"/>
   </bookViews>
   <sheets>
     <sheet name="Tabell1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="319">
   <si>
     <t>Value</t>
   </si>
@@ -88,9 +98,6 @@
     <t>AD8418</t>
   </si>
   <si>
-    <t>AD8418AWBRZ-RL</t>
-  </si>
-  <si>
     <t>U8</t>
   </si>
   <si>
@@ -286,9 +293,6 @@
     <t>TPSB107K006R0400</t>
   </si>
   <si>
-    <t>C37,C39,C40,C41,C43,C44,C26,27</t>
-  </si>
-  <si>
     <t>4.7uF 100V</t>
   </si>
   <si>
@@ -751,9 +755,6 @@
     <t>SPDT on-on</t>
   </si>
   <si>
-    <t>JS102011JCQN</t>
-  </si>
-  <si>
     <t>Reference</t>
   </si>
   <si>
@@ -787,10 +788,199 @@
     <t>568-8686-1-ND</t>
   </si>
   <si>
-    <t>AD8418AWBRZ-RLCT-ND</t>
-  </si>
-  <si>
-    <t>1490-1033-1-ND</t>
+    <t>1428-1019-1-ND</t>
+  </si>
+  <si>
+    <t>MPU-9250</t>
+  </si>
+  <si>
+    <t>490-4800-1-ND</t>
+  </si>
+  <si>
+    <t>490-9573-1-ND</t>
+  </si>
+  <si>
+    <t>732-3034-1-ND</t>
+  </si>
+  <si>
+    <t>490-1109-1-ND</t>
+  </si>
+  <si>
+    <t>490-1105-1-ND</t>
+  </si>
+  <si>
+    <t>490-1103-1-ND</t>
+  </si>
+  <si>
+    <t>535-9721-1-ND</t>
+  </si>
+  <si>
+    <t>300-8206-1-ND</t>
+  </si>
+  <si>
+    <t>IRF7749L2TRPBFCT-ND</t>
+  </si>
+  <si>
+    <t>511-STM32F405RGT6</t>
+  </si>
+  <si>
+    <t>926-LM3671MF-3.3NOPB</t>
+  </si>
+  <si>
+    <t>595-DRV8301DCA</t>
+  </si>
+  <si>
+    <t>AD8418AWBRMZ</t>
+  </si>
+  <si>
+    <t>AD8418AWBRMZ-RL</t>
+  </si>
+  <si>
+    <t>AD8418AWBRMZ-RLCT-ND</t>
+  </si>
+  <si>
+    <t>584-AD8418AWBRMZ</t>
+  </si>
+  <si>
+    <t>NRF24L01P-R7</t>
+  </si>
+  <si>
+    <t>949-NRF24L01P-T</t>
+  </si>
+  <si>
+    <t>1490-1019-ND</t>
+  </si>
+  <si>
+    <t>798-UFLRSMT140</t>
+  </si>
+  <si>
+    <t>H122041-ND</t>
+  </si>
+  <si>
+    <t>410-MPU-9250</t>
+  </si>
+  <si>
+    <t>81-NCP18XH103F03RB</t>
+  </si>
+  <si>
+    <t>2456122RL</t>
+  </si>
+  <si>
+    <t>942-IRF7749L1TRPBF</t>
+  </si>
+  <si>
+    <t>661-EKZN630E681MK30S</t>
+  </si>
+  <si>
+    <t>611-PCM12SMTR</t>
+  </si>
+  <si>
+    <t>401-2016-1-ND</t>
+  </si>
+  <si>
+    <t>PCM12SMTR</t>
+  </si>
+  <si>
+    <t>538-105133-0001</t>
+  </si>
+  <si>
+    <t>771-PMEG6020ER-115</t>
+  </si>
+  <si>
+    <t>576-SMAJ5.0A</t>
+  </si>
+  <si>
+    <t>652-CSS2H3920RL500FE</t>
+  </si>
+  <si>
+    <t>581-TPSB107K006R0400</t>
+  </si>
+  <si>
+    <t>815-ABM3B-8.0-10-1UT</t>
+  </si>
+  <si>
+    <t>815-ABM3B-16-T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1 C7 C28 C48 C49 C50 C53 C58 C60 </t>
+  </si>
+  <si>
+    <t>C37,C39,C40,C41,C43,C44,C26,C27</t>
+  </si>
+  <si>
+    <t>Capacitors_SMD:C_0603</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>581-06035C104JAT2A</t>
+  </si>
+  <si>
+    <t>1740621RL</t>
+  </si>
+  <si>
+    <t>478-5778-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2 C8 C51 C52 </t>
+  </si>
+  <si>
+    <t>15pF</t>
+  </si>
+  <si>
+    <t>311-1749-1-ND</t>
+  </si>
+  <si>
+    <t>100nF  50V X7R 0603</t>
+  </si>
+  <si>
+    <t>15pF 100V C0G 0603</t>
+  </si>
+  <si>
+    <t>603-CC603JRNPO0BN150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3 C4 C5 C6 C9 C10 C11 C12 C13 C14 C15 C17 C20 C31 C33 C34 C35 C36 C38 C42 C59 C61 C62 C63 C64 </t>
+  </si>
+  <si>
+    <t>2.2uF</t>
+  </si>
+  <si>
+    <t>2.2uF 16V X5R 0603</t>
+  </si>
+  <si>
+    <t>810-C1608X5R1C225M-4</t>
+  </si>
+  <si>
+    <t>6.8nF</t>
+  </si>
+  <si>
+    <t>81-GRM18R71H682KA01J</t>
+  </si>
+  <si>
+    <t>6.8nF  50V X7R 0603</t>
+  </si>
+  <si>
+    <t>120nF</t>
+  </si>
+  <si>
+    <t>120nF  50V X7R 0603</t>
+  </si>
+  <si>
+    <t>81-GRM39C121J50</t>
+  </si>
+  <si>
+    <t>GRM1885C1H121JA01D</t>
+  </si>
+  <si>
+    <t>22nF</t>
+  </si>
+  <si>
+    <t>22nF  50V X7R 0603</t>
+  </si>
+  <si>
+    <t>81-GCJ188L81H223KA1D</t>
   </si>
 </sst>
 </file>
@@ -804,7 +994,7 @@
     <numFmt numFmtId="167" formatCode="&quot;  &quot;#,##0&quot; &quot;;&quot;  (&quot;#,##0&quot;)&quot;;&quot; - &quot;;@&quot; &quot;"/>
     <numFmt numFmtId="168" formatCode="#,##0.00&quot; &quot;[$kr-41D];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$kr-41D]"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -879,13 +1069,38 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <color rgb="FF24292E"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Ubuntu"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Ubuntu"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -901,6 +1116,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -949,7 +1176,7 @@
     <xf numFmtId="168" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -979,14 +1206,63 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma" xfId="1"/>
@@ -995,11 +1271,11 @@
     <cellStyle name="Currency [0]" xfId="4"/>
     <cellStyle name="Heading" xfId="5"/>
     <cellStyle name="Heading1" xfId="6"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Percent" xfId="7"/>
     <cellStyle name="Result" xfId="8"/>
     <cellStyle name="Result2" xfId="9"/>
-    <cellStyle name="常规" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1012,7 +1288,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1054,12 +1330,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1089,12 +1365,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1298,36 +1574,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U65"/>
+  <dimension ref="A1:U72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="322" zoomScaleNormal="322" zoomScalePageLayoutView="322" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" customWidth="1"/>
-    <col min="7" max="9" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" customWidth="1"/>
-    <col min="11" max="11" width="35.7109375" customWidth="1"/>
-    <col min="12" max="12" width="35.85546875" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
-    <col min="16" max="18" width="17.28515625" customWidth="1"/>
-    <col min="19" max="20" width="48.85546875" customWidth="1"/>
-    <col min="21" max="21" width="51.85546875" customWidth="1"/>
-    <col min="22" max="266" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" customWidth="1"/>
+    <col min="7" max="7" width="26.5" customWidth="1"/>
+    <col min="8" max="9" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" customWidth="1"/>
+    <col min="11" max="11" width="35.6640625" customWidth="1"/>
+    <col min="12" max="12" width="35.83203125" customWidth="1"/>
+    <col min="13" max="13" width="9.83203125" customWidth="1"/>
+    <col min="14" max="14" width="13.5" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1"/>
+    <col min="16" max="18" width="17.33203125" customWidth="1"/>
+    <col min="19" max="20" width="48.83203125" customWidth="1"/>
+    <col min="21" max="21" width="51.83203125" customWidth="1"/>
+    <col min="22" max="266" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1341,20 +1618,20 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="G1" s="13" t="s">
+      <c r="F1" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>250</v>
+      <c r="I1" s="15" t="s">
+        <v>247</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
@@ -1366,7 +1643,7 @@
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
     </row>
-    <row r="2" spans="1:21" ht="12" customHeight="1">
+    <row r="2" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1381,10 +1658,14 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>251</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+        <v>248</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="H2" s="19">
+        <v>2064363</v>
+      </c>
       <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
@@ -1399,7 +1680,7 @@
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
     </row>
-    <row r="3" spans="1:21" ht="12" customHeight="1">
+    <row r="3" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
@@ -1413,11 +1694,13 @@
       <c r="E3" s="8">
         <v>1</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="15">
+      <c r="F3" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="H3" s="13">
         <v>1685767</v>
       </c>
       <c r="I3" s="8" t="s">
@@ -1433,7 +1716,7 @@
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
     </row>
-    <row r="4" spans="1:21" ht="12" customHeight="1">
+    <row r="4" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1448,10 +1731,14 @@
         <v>1</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+        <v>250</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="H4" s="19">
+        <v>2057084</v>
+      </c>
       <c r="I4" s="8" t="s">
         <v>17</v>
       </c>
@@ -1465,7 +1752,7 @@
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
     </row>
-    <row r="5" spans="1:21" ht="12" customHeight="1">
+    <row r="5" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
@@ -1478,12 +1765,14 @@
         <v>1</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="H5" s="8"/>
+        <v>251</v>
+      </c>
+      <c r="H5" s="18">
+        <v>2776121</v>
+      </c>
       <c r="I5" s="8" t="s">
         <v>20</v>
       </c>
@@ -1497,7 +1786,7 @@
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
     </row>
-    <row r="6" spans="1:21" ht="12" customHeight="1">
+    <row r="6" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>21</v>
       </c>
@@ -1511,16 +1800,20 @@
       <c r="E6" s="8">
         <v>3</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8" t="s">
-        <v>24</v>
+      <c r="F6" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="H6" s="19">
+        <v>2383471</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>269</v>
       </c>
       <c r="J6" t="s">
-        <v>24</v>
+        <v>268</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>8</v>
@@ -1529,110 +1822,135 @@
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
     </row>
-    <row r="7" spans="1:21" ht="12" customHeight="1">
+    <row r="7" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="6"/>
       <c r="D7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="H7" s="35">
+        <v>2842317</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="E7" s="8">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
     </row>
-    <row r="8" spans="1:21" ht="12" customHeight="1">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:21" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="21">
+        <v>2</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="H8" s="26">
+        <v>1688077</v>
+      </c>
+      <c r="I8" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="8">
-        <v>2</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8" t="s">
+      <c r="J8" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" s="28"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+    </row>
+    <row r="9" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="J8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="S8" s="3"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-    </row>
-    <row r="9" spans="1:21" ht="12" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="6"/>
       <c r="D9" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="8">
         <v>1</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="F9" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>277</v>
+      </c>
       <c r="H9" s="8"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="J9" s="10" t="s">
+        <v>255</v>
+      </c>
       <c r="L9" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
     </row>
-    <row r="10" spans="1:21" ht="12" customHeight="1">
+    <row r="10" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="8">
-        <v>1</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8" t="s">
@@ -1642,27 +1960,29 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
     </row>
-    <row r="11" spans="1:21" ht="12" customHeight="1">
+    <row r="11" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
       <c r="E11" s="8">
         <v>1</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="14" t="s">
+        <v>257</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L11" s="8" t="s">
         <v>8</v>
@@ -1671,33 +1991,35 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="1:21" ht="12" customHeight="1">
+    <row r="12" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="E12" s="8">
         <v>1</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="14" t="s">
+        <v>258</v>
+      </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" t="s">
         <v>47</v>
-      </c>
-      <c r="J12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12" t="s">
-        <v>48</v>
       </c>
       <c r="L12" s="8" t="s">
         <v>8</v>
@@ -1706,118 +2028,128 @@
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
     </row>
-    <row r="13" spans="1:21" ht="12" customHeight="1">
+    <row r="13" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="8">
         <v>1</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="14" t="s">
+        <v>259</v>
+      </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
     </row>
-    <row r="14" spans="1:21" ht="12" customHeight="1">
+    <row r="14" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="C14" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="8">
         <v>1</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="14" t="s">
+        <v>260</v>
+      </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
     </row>
-    <row r="15" spans="1:21" ht="12" customHeight="1">
+    <row r="15" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="C15" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="8">
         <v>1</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="14" t="s">
+        <v>261</v>
+      </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
     </row>
-    <row r="16" spans="1:21" ht="12" customHeight="1">
+    <row r="16" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" s="8">
         <v>1</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="F16" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>290</v>
+      </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L16" s="8" t="s">
         <v>8</v>
@@ -1826,59 +2158,69 @@
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
     </row>
-    <row r="17" spans="1:21" ht="12" customHeight="1">
+    <row r="17" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="8">
         <v>1</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="F17" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>291</v>
+      </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S17" s="3"/>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
     </row>
-    <row r="18" spans="1:21" ht="12" customHeight="1">
+    <row r="18" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="8">
         <v>6</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="F18" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="H18" s="18">
+        <v>2725913</v>
+      </c>
       <c r="I18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" t="s">
         <v>69</v>
-      </c>
-      <c r="J18" t="s">
-        <v>69</v>
-      </c>
-      <c r="K18" t="s">
-        <v>70</v>
       </c>
       <c r="L18" s="8" t="s">
         <v>8</v>
@@ -1887,28 +2229,30 @@
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
     </row>
-    <row r="19" spans="1:21" ht="12" customHeight="1">
+    <row r="19" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" s="8">
         <v>3</v>
       </c>
       <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="G19" s="16" t="s">
+        <v>288</v>
+      </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K19" s="8"/>
       <c r="L19" s="8" t="s">
@@ -1918,30 +2262,32 @@
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
     </row>
-    <row r="20" spans="1:21" ht="12" customHeight="1">
+    <row r="20" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>78</v>
-      </c>
       <c r="E20" s="8">
         <v>1</v>
       </c>
       <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="G20" s="16" t="s">
+        <v>287</v>
+      </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K20" s="10"/>
       <c r="L20" s="8" t="s">
@@ -1951,30 +2297,32 @@
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
     </row>
-    <row r="21" spans="1:21" ht="12" customHeight="1">
+    <row r="21" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="C21" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>83</v>
-      </c>
       <c r="E21" s="8">
         <v>1</v>
       </c>
       <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="G21" s="16" t="s">
+        <v>286</v>
+      </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K21" s="10"/>
       <c r="L21" s="8" t="s">
@@ -1984,262 +2332,200 @@
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
     </row>
-    <row r="22" spans="1:21" ht="12" customHeight="1">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C22" t="s">
+        <v>294</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="E22" s="8">
+        <v>9</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J22" t="s">
+        <v>96</v>
+      </c>
+      <c r="K22" s="10"/>
+      <c r="L22" s="8"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+    </row>
+    <row r="23" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>299</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C23" t="s">
+        <v>294</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="E23" s="8">
+        <v>4</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C24" t="s">
+        <v>294</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="E24" s="8">
+        <v>25</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C25" t="s">
+        <v>294</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C26" t="s">
+        <v>294</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C27" t="s">
+        <v>294</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="J27" s="16"/>
+    </row>
+    <row r="28" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="36"/>
+      <c r="B28" s="8"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="16"/>
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="C29" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="E29" s="8">
+        <v>2</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="H29" s="32">
+        <v>1432579</v>
+      </c>
+      <c r="I29" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="8">
-        <v>2</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="J22" t="s">
-        <v>89</v>
-      </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-    </row>
-    <row r="23" spans="1:21" ht="12" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="8">
-        <v>8</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J23" t="s">
-        <v>94</v>
-      </c>
-      <c r="K23" s="10"/>
-      <c r="L23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-    </row>
-    <row r="24" spans="1:21" ht="12" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="8">
-        <v>4</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J24" t="s">
-        <v>98</v>
-      </c>
-      <c r="K24" s="10"/>
-      <c r="L24" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-    </row>
-    <row r="25" spans="1:21" ht="12" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="8">
-        <v>4</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J25" t="s">
-        <v>98</v>
-      </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-    </row>
-    <row r="26" spans="1:21" ht="12" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" s="8">
-        <v>3</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="J26" t="s">
-        <v>103</v>
-      </c>
-      <c r="K26" s="10"/>
-      <c r="L26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-    </row>
-    <row r="27" spans="1:21" ht="12" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" s="8">
-        <v>21</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="J27" t="s">
-        <v>107</v>
-      </c>
-      <c r="K27" s="10"/>
-      <c r="L27" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-    </row>
-    <row r="28" spans="1:21" ht="12" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" s="8">
-        <v>3</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="J28" t="s">
-        <v>107</v>
-      </c>
-      <c r="K28" s="10"/>
-      <c r="L28" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-    </row>
-    <row r="29" spans="1:21" ht="12" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" s="8">
-        <v>3</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8" t="s">
-        <v>112</v>
-      </c>
       <c r="J29" t="s">
-        <v>112</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K29" s="10"/>
       <c r="L29" s="8" t="s">
         <v>8</v>
       </c>
@@ -2247,63 +2533,65 @@
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
     </row>
-    <row r="30" spans="1:21" ht="12" customHeight="1">
+    <row r="30" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>113</v>
+        <v>293</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>51</v>
+        <v>89</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E30" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="J30" t="s">
-        <v>116</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="K30" s="10"/>
       <c r="L30" s="8" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
     </row>
-    <row r="31" spans="1:21" ht="12" customHeight="1">
+    <row r="31" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>51</v>
+        <v>94</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="E31" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="J31" t="s">
-        <v>120</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="K31" s="10"/>
       <c r="L31" s="8" t="s">
         <v>8</v>
       </c>
@@ -2311,63 +2599,65 @@
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
     </row>
-    <row r="32" spans="1:21" ht="12" customHeight="1">
+    <row r="32" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>51</v>
+        <v>94</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="E32" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="J32" t="s">
-        <v>120</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="K32" s="10"/>
       <c r="L32" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
     </row>
-    <row r="33" spans="1:21" ht="12" customHeight="1">
+    <row r="33" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>51</v>
+        <v>99</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="E33" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="J33" t="s">
-        <v>125</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="K33" s="10"/>
       <c r="L33" s="8" t="s">
         <v>8</v>
       </c>
@@ -2375,31 +2665,32 @@
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
     </row>
-    <row r="34" spans="1:21" ht="12" customHeight="1">
+    <row r="34" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>51</v>
+        <v>103</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="E34" s="8">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="J34" t="s">
-        <v>129</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="K34" s="10"/>
       <c r="L34" s="8" t="s">
         <v>8</v>
       </c>
@@ -2407,62 +2698,63 @@
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
     </row>
-    <row r="35" spans="1:21" ht="12" customHeight="1">
+    <row r="35" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>51</v>
+        <v>103</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="E35" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="J35" t="s">
-        <v>133</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="K35" s="10"/>
       <c r="L35" s="8" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
     </row>
-    <row r="36" spans="1:21" ht="12" customHeight="1">
+    <row r="36" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E36" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="J36" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="L36" s="8" t="s">
         <v>8</v>
@@ -2471,113 +2763,115 @@
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
     </row>
-    <row r="37" spans="1:21" ht="12" customHeight="1">
+    <row r="37" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="E37" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="K37" s="8"/>
+        <v>114</v>
+      </c>
+      <c r="J37" t="s">
+        <v>114</v>
+      </c>
       <c r="L37" s="8" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
     </row>
-    <row r="38" spans="1:21" ht="12" customHeight="1">
+    <row r="38" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>117</v>
+      </c>
       <c r="E38" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="J38" t="s">
-        <v>145</v>
-      </c>
-      <c r="K38" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
     </row>
-    <row r="39" spans="1:21" ht="12" customHeight="1">
+    <row r="39" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>117</v>
+      </c>
       <c r="E39" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="J39" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
     </row>
-    <row r="40" spans="1:21" ht="12" customHeight="1">
+    <row r="40" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="E40" s="8">
         <v>1</v>
       </c>
@@ -2585,28 +2879,30 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="J40" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
     </row>
-    <row r="41" spans="1:21" ht="12" customHeight="1">
+    <row r="41" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B41" s="8"/>
+        <v>124</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>125</v>
+      </c>
       <c r="C41" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="E41" s="8">
         <v>1</v>
@@ -2615,28 +2911,30 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="J41" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="L41" s="8" t="s">
         <v>8</v>
       </c>
       <c r="S41" s="3"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-    </row>
-    <row r="42" spans="1:21" ht="12" customHeight="1">
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+    </row>
+    <row r="42" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B42" s="8"/>
+        <v>128</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="C42" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="E42" s="8">
         <v>1</v>
@@ -2645,28 +2943,30 @@
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="J42" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="L42" s="8" t="s">
         <v>8</v>
       </c>
       <c r="S42" s="3"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-    </row>
-    <row r="43" spans="1:21" ht="12" customHeight="1">
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+    </row>
+    <row r="43" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B43" s="8"/>
+        <v>132</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>133</v>
+      </c>
       <c r="C43" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="E43" s="8">
         <v>1</v>
@@ -2675,43 +2975,46 @@
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="J43" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="L43" s="8" t="s">
         <v>8</v>
       </c>
       <c r="S43" s="3"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-    </row>
-    <row r="44" spans="1:21" ht="12" customHeight="1">
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+    </row>
+    <row r="44" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="E44" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
+      <c r="G44" s="30" t="s">
+        <v>281</v>
+      </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="J44" t="s">
-        <v>165</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K44" s="8"/>
       <c r="L44" s="8" t="s">
         <v>8</v>
       </c>
@@ -2719,146 +3022,139 @@
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
     </row>
-    <row r="45" spans="1:21" ht="12" customHeight="1">
+    <row r="45" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="8" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>168</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D45" s="10"/>
       <c r="E45" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="J45" t="s">
-        <v>169</v>
+        <v>143</v>
+      </c>
+      <c r="K45" t="s">
+        <v>144</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
     </row>
-    <row r="46" spans="1:21" ht="12" customHeight="1">
+    <row r="46" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>172</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D46" s="10"/>
       <c r="E46" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="J46" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
     </row>
-    <row r="47" spans="1:21" ht="12" customHeight="1">
+    <row r="47" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>176</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D47" s="10"/>
       <c r="E47" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="J47" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
     </row>
-    <row r="48" spans="1:21" ht="12" customHeight="1">
+    <row r="48" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>179</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="B48" s="8"/>
       <c r="C48" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="E48" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="J48" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="L48" s="8" t="s">
         <v>8</v>
       </c>
       <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-    </row>
-    <row r="49" spans="1:21" ht="12" customHeight="1">
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+    </row>
+    <row r="49" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>183</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="B49" s="8"/>
       <c r="C49" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="E49" s="8">
         <v>1</v>
@@ -2867,74 +3163,72 @@
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="J49" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="L49" s="8" t="s">
         <v>8</v>
       </c>
       <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-    </row>
-    <row r="50" spans="1:21" ht="12" customHeight="1">
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+    </row>
+    <row r="50" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>187</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="B50" s="8"/>
       <c r="C50" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="E50" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="J50" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="L50" s="8" t="s">
         <v>8</v>
       </c>
       <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
-    </row>
-    <row r="51" spans="1:21" ht="12" customHeight="1">
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+    </row>
+    <row r="51" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="E51" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="J51" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="L51" s="8" t="s">
         <v>8</v>
@@ -2943,30 +3237,30 @@
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
     </row>
-    <row r="52" spans="1:21" ht="12" customHeight="1">
+    <row r="52" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="8" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="E52" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="J52" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="L52" s="8" t="s">
         <v>8</v>
@@ -2975,62 +3269,62 @@
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
     </row>
-    <row r="53" spans="1:21" ht="12" customHeight="1">
+    <row r="53" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="E53" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="J53" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
     </row>
-    <row r="54" spans="1:21" ht="12" customHeight="1">
+    <row r="54" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="8" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="E54" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="J54" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="L54" s="8" t="s">
         <v>8</v>
@@ -3039,30 +3333,30 @@
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
     </row>
-    <row r="55" spans="1:21" ht="12" customHeight="1">
+    <row r="55" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="E55" s="8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
       <c r="I55" s="8" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="J55" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="L55" s="8" t="s">
         <v>8</v>
@@ -3071,30 +3365,30 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
     </row>
-    <row r="56" spans="1:21" ht="12" customHeight="1">
+    <row r="56" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="8" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="E56" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
       <c r="I56" s="8" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="J56" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="L56" s="8" t="s">
         <v>8</v>
@@ -3103,32 +3397,31 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
     </row>
-    <row r="57" spans="1:21" ht="12" customHeight="1">
+    <row r="57" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>215</v>
+        <v>184</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>185</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="E57" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
       <c r="I57" s="8" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="J57" t="s">
-        <v>217</v>
-      </c>
-      <c r="K57" s="8"/>
+        <v>187</v>
+      </c>
       <c r="L57" s="8" t="s">
         <v>8</v>
       </c>
@@ -3136,16 +3429,18 @@
       <c r="T57" s="3"/>
       <c r="U57" s="3"/>
     </row>
-    <row r="58" spans="1:21" ht="12" customHeight="1">
+    <row r="58" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B58" s="8"/>
+        <v>188</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>189</v>
+      </c>
       <c r="C58" s="8" t="s">
-        <v>219</v>
+        <v>50</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="E58" s="8">
         <v>1</v>
@@ -3154,29 +3449,30 @@
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
       <c r="I58" s="8" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="J58" t="s">
-        <v>221</v>
-      </c>
-      <c r="K58" s="8"/>
+        <v>191</v>
+      </c>
       <c r="L58" s="8" t="s">
         <v>8</v>
       </c>
       <c r="S58" s="3"/>
-      <c r="T58" s="9"/>
-      <c r="U58" s="9"/>
-    </row>
-    <row r="59" spans="1:21" ht="12" customHeight="1">
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+    </row>
+    <row r="59" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B59" s="8"/>
+        <v>192</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>193</v>
+      </c>
       <c r="C59" s="8" t="s">
-        <v>223</v>
+        <v>50</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="E59" s="8">
         <v>1</v>
@@ -3185,29 +3481,30 @@
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="J59" t="s">
-        <v>225</v>
-      </c>
-      <c r="K59" s="8"/>
+        <v>195</v>
+      </c>
       <c r="L59" s="8" t="s">
         <v>8</v>
       </c>
       <c r="S59" s="3"/>
-      <c r="T59" s="9"/>
-      <c r="U59" s="9"/>
-    </row>
-    <row r="60" spans="1:21" ht="12" customHeight="1">
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+    </row>
+    <row r="60" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="B60" s="8"/>
+        <v>196</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>197</v>
+      </c>
       <c r="C60" s="8" t="s">
-        <v>227</v>
+        <v>50</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="E60" s="8">
         <v>1</v>
@@ -3216,59 +3513,62 @@
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
       <c r="I60" s="8" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="J60" t="s">
-        <v>229</v>
-      </c>
-      <c r="K60" s="8"/>
+        <v>199</v>
+      </c>
       <c r="L60" s="8" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="S60" s="3"/>
-      <c r="T60" s="9"/>
-      <c r="U60" s="9"/>
-    </row>
-    <row r="61" spans="1:21" ht="12" customHeight="1">
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+    </row>
+    <row r="61" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B61" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>201</v>
+      </c>
       <c r="C61" s="8" t="s">
-        <v>231</v>
+        <v>50</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="E61" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
       <c r="I61" s="8" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="J61" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="L61" s="8" t="s">
         <v>8</v>
       </c>
       <c r="S61" s="3"/>
-      <c r="T61" s="9"/>
-      <c r="U61" s="9"/>
-    </row>
-    <row r="62" spans="1:21">
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+    </row>
+    <row r="62" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="B62" s="8"/>
+        <v>204</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>205</v>
+      </c>
       <c r="C62" s="8" t="s">
-        <v>235</v>
+        <v>50</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="E62" s="8">
         <v>1</v>
@@ -3277,78 +3577,311 @@
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
       <c r="I62" s="8" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="J62" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="L62" s="8" t="s">
         <v>8</v>
       </c>
       <c r="S62" s="3"/>
-      <c r="T62" s="9"/>
-      <c r="U62" s="9"/>
-    </row>
-    <row r="63" spans="1:21" ht="12" customHeight="1">
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+    </row>
+    <row r="63" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B63" s="8"/>
+        <v>208</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>209</v>
+      </c>
       <c r="C63" s="8" t="s">
-        <v>239</v>
+        <v>50</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="E63" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
       <c r="I63" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="J63" t="s">
+        <v>211</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+    </row>
+    <row r="64" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E64" s="8">
+        <v>1</v>
+      </c>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="J64" t="s">
+        <v>215</v>
+      </c>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+    </row>
+    <row r="65" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E65" s="8">
+        <v>1</v>
+      </c>
+      <c r="F65" s="8"/>
+      <c r="G65" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="H65" s="19">
+        <v>2630075</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="J65" s="34">
+        <v>1051330001</v>
+      </c>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S65" s="3"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+    </row>
+    <row r="66" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E66" s="8">
+        <v>1</v>
+      </c>
+      <c r="F66" s="8"/>
+      <c r="H66" s="19">
+        <v>9492445</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="J66" t="s">
+        <v>223</v>
+      </c>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S66" s="3"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="9"/>
+    </row>
+    <row r="67" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E67" s="8">
+        <v>1</v>
+      </c>
+      <c r="F67" s="8"/>
+      <c r="H67" s="19">
+        <v>9492429</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="J67" t="s">
+        <v>227</v>
+      </c>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S67" s="3"/>
+      <c r="T67" s="9"/>
+      <c r="U67" s="9"/>
+    </row>
+    <row r="68" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E68" s="8">
+        <v>1</v>
+      </c>
+      <c r="F68" s="8"/>
+      <c r="H68" s="19">
+        <v>9492461</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="J68" t="s">
+        <v>231</v>
+      </c>
+      <c r="L68" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S68" s="3"/>
+      <c r="T68" s="9"/>
+      <c r="U68" s="9"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A69" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E69" s="8">
+        <v>1</v>
+      </c>
+      <c r="F69" s="8"/>
+      <c r="H69" s="19">
+        <v>9492453</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J69" t="s">
+        <v>235</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S69" s="3"/>
+      <c r="T69" s="9"/>
+      <c r="U69" s="9"/>
+    </row>
+    <row r="70" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E70" s="8">
+        <v>1</v>
+      </c>
+      <c r="F70" s="8"/>
+      <c r="H70" s="31">
+        <v>9492437</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="J70" t="s">
+        <v>239</v>
+      </c>
+      <c r="L70" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S70" s="3"/>
+      <c r="T70" s="9"/>
+      <c r="U70" s="9"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>240</v>
+      </c>
+      <c r="C71" t="s">
         <v>241</v>
       </c>
-      <c r="J63" t="s">
-        <v>241</v>
-      </c>
-      <c r="L63" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="S63" s="3"/>
-      <c r="T63" s="9"/>
-      <c r="U63" s="9"/>
-    </row>
-    <row r="64" spans="1:21">
-      <c r="A64" t="s">
+      <c r="D71" t="s">
         <v>242</v>
       </c>
-      <c r="C64" t="s">
-        <v>243</v>
-      </c>
-      <c r="D64" t="s">
-        <v>244</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="I64" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="J64" t="s">
-        <v>245</v>
-      </c>
-      <c r="L64" t="s">
-        <v>8</v>
-      </c>
-      <c r="S64" s="3"/>
-      <c r="T64" s="9"/>
-      <c r="U64" s="9"/>
-    </row>
-    <row r="65" spans="19:21">
-      <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
-      <c r="U65" s="3"/>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="G71" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="I71" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="J71" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="L71" t="s">
+        <v>8</v>
+      </c>
+      <c r="S71" s="3"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="9"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3356,63 +3889,63 @@
     <hyperlink ref="I3" r:id="rId2"/>
     <hyperlink ref="I4" r:id="rId3"/>
     <hyperlink ref="I5" r:id="rId4"/>
-    <hyperlink ref="I6" r:id="rId5"/>
-    <hyperlink ref="I7" r:id="rId6"/>
-    <hyperlink ref="I8" r:id="rId7"/>
-    <hyperlink ref="I10" r:id="rId8"/>
-    <hyperlink ref="I11" r:id="rId9"/>
-    <hyperlink ref="I12" r:id="rId10"/>
-    <hyperlink ref="I13" r:id="rId11"/>
-    <hyperlink ref="I14" r:id="rId12"/>
-    <hyperlink ref="I15" r:id="rId13"/>
-    <hyperlink ref="I16" r:id="rId14"/>
-    <hyperlink ref="I17" r:id="rId15"/>
-    <hyperlink ref="I18" r:id="rId16"/>
-    <hyperlink ref="I19" r:id="rId17"/>
-    <hyperlink ref="I20" r:id="rId18"/>
-    <hyperlink ref="I21" r:id="rId19"/>
-    <hyperlink ref="I22" r:id="rId20"/>
-    <hyperlink ref="I23" r:id="rId21"/>
-    <hyperlink ref="I24" r:id="rId22"/>
-    <hyperlink ref="I25" r:id="rId23"/>
-    <hyperlink ref="I26" r:id="rId24"/>
-    <hyperlink ref="I27" r:id="rId25"/>
-    <hyperlink ref="I28" r:id="rId26"/>
-    <hyperlink ref="I29" r:id="rId27"/>
-    <hyperlink ref="I30" r:id="rId28"/>
-    <hyperlink ref="I31" r:id="rId29"/>
-    <hyperlink ref="I32" r:id="rId30"/>
-    <hyperlink ref="I33" r:id="rId31"/>
-    <hyperlink ref="I34" r:id="rId32"/>
-    <hyperlink ref="I35" r:id="rId33"/>
-    <hyperlink ref="I36" r:id="rId34"/>
-    <hyperlink ref="I38" r:id="rId35"/>
-    <hyperlink ref="I39" r:id="rId36"/>
-    <hyperlink ref="I40" r:id="rId37"/>
-    <hyperlink ref="I41" r:id="rId38"/>
-    <hyperlink ref="I42" r:id="rId39"/>
-    <hyperlink ref="I43" r:id="rId40"/>
-    <hyperlink ref="I44" r:id="rId41"/>
-    <hyperlink ref="I45" r:id="rId42"/>
-    <hyperlink ref="I46" r:id="rId43"/>
-    <hyperlink ref="I47" r:id="rId44"/>
-    <hyperlink ref="I48" r:id="rId45"/>
-    <hyperlink ref="I49" r:id="rId46"/>
-    <hyperlink ref="I50" r:id="rId47"/>
-    <hyperlink ref="I51" r:id="rId48"/>
-    <hyperlink ref="I52" r:id="rId49"/>
-    <hyperlink ref="I53" r:id="rId50"/>
-    <hyperlink ref="I54" r:id="rId51"/>
-    <hyperlink ref="I55" r:id="rId52"/>
-    <hyperlink ref="I56" r:id="rId53"/>
-    <hyperlink ref="I57" r:id="rId54"/>
-    <hyperlink ref="I58" r:id="rId55"/>
-    <hyperlink ref="I59" r:id="rId56"/>
-    <hyperlink ref="I60" r:id="rId57"/>
-    <hyperlink ref="I61" r:id="rId58"/>
-    <hyperlink ref="I62" r:id="rId59"/>
-    <hyperlink ref="I63" r:id="rId60"/>
-    <hyperlink ref="I64" r:id="rId61"/>
+    <hyperlink ref="I7" r:id="rId5"/>
+    <hyperlink ref="I8" r:id="rId6"/>
+    <hyperlink ref="I10" r:id="rId7"/>
+    <hyperlink ref="I11" r:id="rId8"/>
+    <hyperlink ref="I12" r:id="rId9"/>
+    <hyperlink ref="I13" r:id="rId10"/>
+    <hyperlink ref="I14" r:id="rId11"/>
+    <hyperlink ref="I15" r:id="rId12"/>
+    <hyperlink ref="I16" r:id="rId13"/>
+    <hyperlink ref="I17" r:id="rId14"/>
+    <hyperlink ref="I18" r:id="rId15"/>
+    <hyperlink ref="I19" r:id="rId16"/>
+    <hyperlink ref="I20" r:id="rId17"/>
+    <hyperlink ref="I21" r:id="rId18"/>
+    <hyperlink ref="I29" r:id="rId19"/>
+    <hyperlink ref="I30" r:id="rId20"/>
+    <hyperlink ref="I31" r:id="rId21"/>
+    <hyperlink ref="I32" r:id="rId22"/>
+    <hyperlink ref="I33" r:id="rId23"/>
+    <hyperlink ref="I34" r:id="rId24"/>
+    <hyperlink ref="I35" r:id="rId25"/>
+    <hyperlink ref="I36" r:id="rId26"/>
+    <hyperlink ref="I37" r:id="rId27"/>
+    <hyperlink ref="I38" r:id="rId28"/>
+    <hyperlink ref="I39" r:id="rId29"/>
+    <hyperlink ref="I40" r:id="rId30"/>
+    <hyperlink ref="I41" r:id="rId31"/>
+    <hyperlink ref="I42" r:id="rId32"/>
+    <hyperlink ref="I43" r:id="rId33"/>
+    <hyperlink ref="I45" r:id="rId34"/>
+    <hyperlink ref="I46" r:id="rId35"/>
+    <hyperlink ref="I47" r:id="rId36"/>
+    <hyperlink ref="I48" r:id="rId37"/>
+    <hyperlink ref="I49" r:id="rId38"/>
+    <hyperlink ref="I50" r:id="rId39"/>
+    <hyperlink ref="I51" r:id="rId40"/>
+    <hyperlink ref="I52" r:id="rId41"/>
+    <hyperlink ref="I53" r:id="rId42"/>
+    <hyperlink ref="I54" r:id="rId43"/>
+    <hyperlink ref="I55" r:id="rId44"/>
+    <hyperlink ref="I56" r:id="rId45"/>
+    <hyperlink ref="I57" r:id="rId46"/>
+    <hyperlink ref="I58" r:id="rId47"/>
+    <hyperlink ref="I59" r:id="rId48"/>
+    <hyperlink ref="I60" r:id="rId49"/>
+    <hyperlink ref="I61" r:id="rId50"/>
+    <hyperlink ref="I62" r:id="rId51"/>
+    <hyperlink ref="I63" r:id="rId52"/>
+    <hyperlink ref="I64" r:id="rId53"/>
+    <hyperlink ref="I65" r:id="rId54"/>
+    <hyperlink ref="I66" r:id="rId55"/>
+    <hyperlink ref="I67" r:id="rId56"/>
+    <hyperlink ref="I68" r:id="rId57"/>
+    <hyperlink ref="I69" r:id="rId58"/>
+    <hyperlink ref="I70" r:id="rId59"/>
+    <hyperlink ref="I6" r:id="rId60"/>
+    <hyperlink ref="I22" r:id="rId61"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.99999999999999989" bottom="0.99999999999999989" header="0.49999999999999994" footer="0.49999999999999994"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId62"/>
